--- a/i_codebooks/D3_all_vaccines_curated.xlsx
+++ b/i_codebooks/D3_all_vaccines_curated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>medatata_name</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Name of the dataset</t>
   </si>
   <si>
-    <t>D3_vaccines_curated</t>
-  </si>
-  <si>
     <t>Content of the dataset</t>
   </si>
   <si>
@@ -157,39 +154,6 @@
     <t>P004</t>
   </si>
   <si>
-    <t>astrazeneca</t>
-  </si>
-  <si>
-    <t>P008</t>
-  </si>
-  <si>
-    <t>moderna</t>
-  </si>
-  <si>
-    <t>P010</t>
-  </si>
-  <si>
-    <t>P013</t>
-  </si>
-  <si>
-    <t>P014</t>
-  </si>
-  <si>
-    <t>P015</t>
-  </si>
-  <si>
-    <t>P016</t>
-  </si>
-  <si>
-    <t>P018</t>
-  </si>
-  <si>
-    <t>P020</t>
-  </si>
-  <si>
-    <t>P021</t>
-  </si>
-  <si>
     <t>persons in the instance</t>
   </si>
   <si>
@@ -215,6 +179,27 @@
   </si>
   <si>
     <t>label from the VaccO ontology</t>
+  </si>
+  <si>
+    <t>COV</t>
+  </si>
+  <si>
+    <t>TET</t>
+  </si>
+  <si>
+    <t>DIP</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>D3_all_vaccines_curated</t>
+  </si>
+  <si>
+    <t>these 3 records are originated from the same original record of a trivalent vaccination</t>
   </si>
 </sst>
 </file>
@@ -224,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +263,15 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +284,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -421,11 +419,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -435,7 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
@@ -445,7 +519,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -473,6 +546,52 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -790,7 +909,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,64 +927,64 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -877,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,113 +1009,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="16"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1081,14 +1200,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" ht="54" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1098,411 +1217,270 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44197</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="9">
-        <v>44197</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="E2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44221</v>
+      </c>
+      <c r="C3" s="20">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="21">
+        <v>44287</v>
+      </c>
+      <c r="C4" s="20">
+        <v>3</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="21">
+        <v>44359</v>
+      </c>
+      <c r="C5" s="20">
+        <v>4</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="24">
+        <v>44428</v>
+      </c>
+      <c r="C6" s="23">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="D6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="9">
-        <v>44221</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="E6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="21">
+        <v>44407</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="24">
+        <v>44318</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="24">
+        <v>44318</v>
+      </c>
+      <c r="C9" s="23">
+        <v>1</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="24">
+        <v>44318</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="24">
+        <v>44404</v>
+      </c>
+      <c r="C11" s="23">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="9">
-        <v>44287</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="9">
-        <v>44359</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="9">
-        <v>44428</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="9">
-        <v>44407</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="9">
-        <v>44318</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="B12" s="24">
         <v>44404</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C12" s="23">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="9">
-        <v>44411</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="9">
-        <v>44337</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="9">
-        <v>44377</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="D12" s="23"/>
+      <c r="E12" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="24">
+        <v>44404</v>
+      </c>
+      <c r="C13" s="23">
         <v>2</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="9">
-        <v>44338</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="9">
-        <v>44383</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="9">
-        <v>44304</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="9">
-        <v>44328</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="9">
-        <v>44331</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="9">
-        <v>44371</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="9">
-        <v>44296</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="9">
-        <v>44380</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="9">
-        <v>44360</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="9">
-        <v>44401</v>
-      </c>
-      <c r="C22" s="5">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="9">
-        <v>44288</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="9">
-        <v>44371</v>
-      </c>
-      <c r="C24" s="5">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="9">
-        <v>44356</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="9">
-        <v>44397</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F8:G10"/>
+    <mergeCell ref="F11:G13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8718e4a61e08f80278e3f0325a3727eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f65cc27c03321c69be19df794a0d9ee" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -1753,10 +1731,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93CB37C0-20D2-41C5-B1FB-AE3E189FB0ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1779,20 +1789,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93CB37C0-20D2-41C5-B1FB-AE3E189FB0ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
-    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/i_codebooks/D3_all_vaccines_curated.xlsx
+++ b/i_codebooks/D3_all_vaccines_curated.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>medatata_name</t>
   </si>
@@ -151,9 +151,6 @@
     <t>P003</t>
   </si>
   <si>
-    <t>P004</t>
-  </si>
-  <si>
     <t>persons in the instance</t>
   </si>
   <si>
@@ -184,22 +181,19 @@
     <t>COV</t>
   </si>
   <si>
-    <t>TET</t>
-  </si>
-  <si>
-    <t>DIP</t>
-  </si>
-  <si>
-    <t>PER</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
     <t>D3_all_vaccines_curated</t>
   </si>
   <si>
-    <t>these 3 records are originated from the same original record of a trivalent vaccination</t>
+    <t>DIP-PER-TET</t>
+  </si>
+  <si>
+    <t>HPV</t>
+  </si>
+  <si>
+    <t>astrazeneca</t>
+  </si>
+  <si>
+    <t>moderna</t>
   </si>
 </sst>
 </file>
@@ -291,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -434,73 +428,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -556,42 +488,9 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -931,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -939,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -947,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
@@ -955,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -963,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -971,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -979,7 +878,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1084,7 +983,7 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -1103,16 +1002,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
@@ -1217,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,10 +1128,10 @@
     <col min="2" max="2" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
@@ -1246,236 +1145,157 @@
         <v>30</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="21">
-        <v>44197</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="B2" s="24">
+        <v>44318</v>
+      </c>
+      <c r="C2" s="23">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="24">
+        <v>44404</v>
+      </c>
+      <c r="C3" s="23">
+        <v>2</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="28">
+        <v>44428</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44221</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="E4" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="21">
+        <v>44407</v>
+      </c>
+      <c r="C5" s="20">
         <v>2</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="21">
-        <v>44287</v>
-      </c>
-      <c r="C4" s="20">
-        <v>3</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="21">
-        <v>44359</v>
-      </c>
-      <c r="C5" s="20">
-        <v>4</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="24">
-        <v>44428</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="21">
+        <v>44772</v>
+      </c>
+      <c r="C6" s="20">
         <v>1</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="24">
+        <v>44197</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="24">
+        <v>44221</v>
+      </c>
+      <c r="C8" s="23">
+        <v>2</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="24">
+        <v>44287</v>
+      </c>
+      <c r="C9" s="23">
+        <v>3</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="E9" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="21">
-        <v>44407</v>
-      </c>
-      <c r="C7" s="20">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="24">
-        <v>44318</v>
-      </c>
-      <c r="C8" s="23">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="24">
-        <v>44318</v>
-      </c>
-      <c r="C9" s="23">
-        <v>1</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>38</v>
-      </c>
       <c r="B10" s="24">
-        <v>44318</v>
+        <v>44481</v>
       </c>
       <c r="C10" s="23">
-        <v>1</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="24">
-        <v>44404</v>
-      </c>
-      <c r="C11" s="23">
-        <v>2</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="24">
-        <v>44404</v>
-      </c>
-      <c r="C12" s="23">
-        <v>2</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="24">
-        <v>44404</v>
-      </c>
-      <c r="C13" s="23">
-        <v>2</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
+      <c r="E10" s="25" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F8:G10"/>
-    <mergeCell ref="F11:G13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1732,6 +1552,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
@@ -1741,15 +1570,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1772,6 +1592,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -1786,12 +1614,4 @@
     <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/i_codebooks/D3_all_vaccines_curated.xlsx
+++ b/i_codebooks/D3_all_vaccines_curated.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
   <si>
     <t>medatata_name</t>
   </si>
@@ -151,30 +151,15 @@
     <t>P003</t>
   </si>
   <si>
-    <t>persons in the instance</t>
-  </si>
-  <si>
     <t>&gt;= 0</t>
   </si>
   <si>
-    <t xml:space="preserve">person_id </t>
-  </si>
-  <si>
-    <t>person_id dose_curated vacco_id</t>
-  </si>
-  <si>
     <t>vacco_id</t>
   </si>
   <si>
     <t>doses higher than the vaccine-specific maximum dosage are excluded</t>
   </si>
   <si>
-    <t>VaccO ontology, as specified in the CDM Vocabulary at this link https://docs.google.com/spreadsheets/d/1vPZwzQyjXlmmE1vvx3r1Jkw3Juz2DLjU9dKgEo8MijE/edit#gid=540144397, restricted to vaccines in Table 4 of the SAP</t>
-  </si>
-  <si>
-    <t>This dataset contains the records of all the curated doses of all vaccines in the instance listed in Table 4 of the SAP, including the curated covid vaccines. It is obtained by D3_clea_all_vaccines by excluding records that are duplicates or of bad quality</t>
-  </si>
-  <si>
     <t>label from the VaccO ontology</t>
   </si>
   <si>
@@ -194,6 +179,185 @@
   </si>
   <si>
     <t>moderna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUB                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP_PER_TET             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP_HEB_PER_POL_TET     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP_HIB_PER_TET         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP_TET                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEB                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POL                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA_MUM_RUB             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUM                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RVV                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COV                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEZ                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIB_POL                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PER                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP_HEB_PER_TET         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP_HIB_PER_POL_TET     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INF                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIB                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA_MUM_RUB_VAR         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNE                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TET                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPV                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP_HIB_TET             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCG                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP_PER_POL_TET        </t>
+  </si>
+  <si>
+    <t>DIP_HEB_HIB_PER_POL_TET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP_HIB_HEP_PER_TET    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP_POL_TET            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEA_HEB                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIB_MEN                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEN                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEA_RUB                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUB                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAR                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPX                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEB_HIB                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP_HEB_HIB_PER_TET    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">note that the symbol '-' of the original VaccO ontology has been replaced by the symbol '_' because the former cannot be part of a file name in , so examples are
+"DIP_HEB_PER_POL_TET"     
+"DIP_HIB_PER_TET"         
+"DIP_TET"                 
+"HEB"                     
+"POL"                     
+"MEA_MUM_RUB"             
+"MUM"                     
+"RVV"                     
+"COV"                     
+"HEZ"                     
+"HIB_POL" </t>
+  </si>
+  <si>
+    <t>root_indicator</t>
+  </si>
+  <si>
+    <t>VaccO ontology, as specified in SAFETY-VAC_vaccines_28Mar24</t>
+  </si>
+  <si>
+    <t>root of the indicator, as specified in SAFETY-VAC_indicators_28Mar24, i.e., Table 7 of the Protocol. The same indicator may be populated by multiple VaccoIDs, e.g., the indicator Pol2 may be obtained by a first dose of POL and a second dose of DIP-PER-POL-TET. The two records are copied with root_indicator Pol and doses curated are assigned on the base of the root_indicator</t>
+  </si>
+  <si>
+    <t>DPT</t>
+  </si>
+  <si>
+    <t>Coronavirus</t>
+  </si>
+  <si>
+    <t>"MCV"
+"DTP"
+"Hib"
+"HepB"
+"Pol"
+"PCV"
+"Varicella"
+"BCG"
+"HPV"
+"RotaC"
+"Meningococcal"
+"Influenza"
+"Coronavirus"</t>
+  </si>
+  <si>
+    <t>HPV </t>
+  </si>
+  <si>
+    <t>root indicators for all persons in the instance</t>
+  </si>
+  <si>
+    <t>as many as thedoses for that root_indicator, including duplicates</t>
+  </si>
+  <si>
+    <t>NxUoO</t>
+  </si>
+  <si>
+    <t>person_id root_indicator dose_curated</t>
+  </si>
+  <si>
+    <t>This dataset contains the records of all the curated doses of all roots of indicators in the instance listed in Table 7 of the SAP. Doses of covid vaccines are included. It is obtained by D3_clean_all_vaccines by excluding records that are duplicates or of bad quality, and after appending the curated covid vaccines</t>
   </si>
 </sst>
 </file>
@@ -203,7 +367,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,7 +379,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -228,7 +392,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -241,7 +405,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -255,7 +419,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -263,6 +427,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -432,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -491,6 +661,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -805,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -838,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -846,43 +1023,46 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>38</v>
-      </c>
+      <c r="B5" s="18"/>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>39</v>
+      <c r="B6" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -893,18 +1073,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="48.6640625" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="39" style="30" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="78" x14ac:dyDescent="0.3">
@@ -920,7 +1104,7 @@
       <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -943,7 +1127,7 @@
       </c>
       <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:12" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -972,18 +1156,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>43</v>
+      <c r="F4" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
@@ -1000,23 +1184,40 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>44</v>
+      <c r="D6" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+    </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
     </row>
@@ -1079,9 +1280,6 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1090,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,6 +1307,201 @@
         <v>33</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1116,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,7 +1524,7 @@
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
@@ -1145,10 +1538,13 @@
         <v>30</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>34</v>
       </c>
@@ -1160,10 +1556,13 @@
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>34</v>
       </c>
@@ -1175,10 +1574,13 @@
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>36</v>
       </c>
@@ -1192,10 +1594,13 @@
         <v>35</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>36</v>
       </c>
@@ -1209,10 +1614,13 @@
         <v>35</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>36</v>
       </c>
@@ -1224,10 +1632,13 @@
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>37</v>
       </c>
@@ -1238,13 +1649,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>37</v>
       </c>
@@ -1255,13 +1669,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>37</v>
       </c>
@@ -1275,10 +1692,13 @@
         <v>35</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>37</v>
       </c>
@@ -1289,14 +1709,18 @@
         <v>4</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/i_codebooks/D3_all_vaccines_curated.xlsx
+++ b/i_codebooks/D3_all_vaccines_curated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -348,9 +348,6 @@
     <t>root indicators for all persons in the instance</t>
   </si>
   <si>
-    <t>as many as thedoses for that root_indicator, including duplicates</t>
-  </si>
-  <si>
     <t>NxUoO</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t>This dataset contains the records of all the curated doses of all roots of indicators in the instance listed in Table 7 of the SAP. Doses of covid vaccines are included. It is obtained by D3_clean_all_vaccines by excluding records that are duplicates or of bad quality, and after appending the curated covid vaccines</t>
+  </si>
+  <si>
+    <t>as many as thedoses for that root_indicator</t>
   </si>
 </sst>
 </file>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1037,12 +1037,12 @@
         <v>6</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -1053,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1076,10 +1076,10 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1511,7 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1725,6 +1725,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8718e4a61e08f80278e3f0325a3727eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f65cc27c03321c69be19df794a0d9ee" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -1975,15 +1984,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1997,6 +1997,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93CB37C0-20D2-41C5-B1FB-AE3E189FB0ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2011,14 +2019,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
